--- a/biology/Mycologie/Muguet_buccal/Muguet_buccal.xlsx
+++ b/biology/Mycologie/Muguet_buccal/Muguet_buccal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de muguet buccal est actuellement réservé aux candidoses oropharyngiennes qui sont les localisations cliniques de loin les plus fréquentes étant donné le territoire préférentiel des levures commensales.
 Le muguet touche :
